--- a/results/synechocystis_sp_pcc_6803/Iron_depletion_oxidative_stress_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Iron_depletion_oxidative_stress_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_24h_30_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_24h_30_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_28h_mv_30_Presence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_28h_mv_30_Presence" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_24h_30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_24h_30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_28h_mv_30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_28h_mv_30" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,26 +460,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.168525814777623e-20</v>
+        <v>1.626207360689064e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2755905511811024</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,32 +487,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.457285519746586e-13</v>
+        <v>8.763590545213465e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5185185185185185</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.002869347459717e-13</v>
+        <v>9.830244067334467e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -525,56 +525,56 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.407789697677516e-09</v>
+        <v>0.0006301626607343512</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.585400423401259e-08</v>
+        <v>0.004014369542455866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.311033226048793e-07</v>
+        <v>0.004014369542455866</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -582,132 +582,132 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.158476124977679e-06</v>
+        <v>0.004014369542455866</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.049900260039896e-05</v>
+        <v>0.02541450129451839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2368421052631579</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2368421052631579</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.885124788451371e-05</v>
+        <v>0.02989137982307817</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1714285714285714</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.130672796788262e-05</v>
+        <v>0.05229876111335889</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196078431372549</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E11" t="n">
-        <v>0.196078431372549</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.428474002912485e-05</v>
+        <v>0.05531657874010734</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.561884073242017e-05</v>
+        <v>0.06821476479864344</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.133220605947717e-05</v>
+        <v>0.1736834899407693</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4166666666666667</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -715,459 +715,459 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001276476562094356</v>
+        <v>0.2443729546041714</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3846153846153846</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002929999345547475</v>
+        <v>0.246716988996529</v>
       </c>
       <c r="D16" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0006112435803912917</v>
+        <v>0.2761583109183797</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2307692307692308</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0007144916154033366</v>
+        <v>0.2825494332294121</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2777777777777778</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001799240545943003</v>
+        <v>0.2826339909947572</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.001799240545943003</v>
+        <v>0.3111275821329959</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.007410342420796487</v>
+        <v>0.3743342389491547</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2105263157894737</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01019996797817359</v>
+        <v>0.4063431240673238</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03281154787026819</v>
+        <v>0.5461980629315204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2857142857142857</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03410485349772464</v>
+        <v>0.5461980629315204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0898876404494382</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04254408448067501</v>
+        <v>0.5958036240118916</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.06468051200350257</v>
+        <v>0.6496358088355949</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.08977654916032168</v>
+        <v>0.6710395273125205</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1666666666666667</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Folate biosynthesis</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7200653763499043</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E28" t="n">
         <v>15</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Histidine metabolism</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1032309930221448</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1032309930221448</v>
+        <v>0.7534423620008195</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1538461538461539</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1171922197164027</v>
+        <v>0.7537282113899548</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1428571428571428</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1223201736256676</v>
+        <v>0.8266488793912168</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3333333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1954852490418656</v>
+        <v>0.8336075749779035</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1954852490418656</v>
+        <v>0.8782294462213041</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2625867551531422</v>
+        <v>0.8979760225097413</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1428571428571428</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3241242569071247</v>
+        <v>0.8979760225097413</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1111111111111111</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.380556404802224</v>
+        <v>0.9284309538240856</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09090909090909091</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6332513806041484</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04347826086956522</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6332513806041484</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04347826086956522</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1196,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1234,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1253,16 +1253,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1272,16 +1272,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1329,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1367,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1405,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1424,7 +1424,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lipopolysaccharide biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Terpenoid backbone biosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pantothenate and CoA biosynthesis</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,7 +1546,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1478,379 +1554,379 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.909958073946175e-14</v>
+        <v>1.351769395358724e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.960566756999775e-08</v>
+        <v>1.63442330677116e-05</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.148940003186164e-07</v>
+        <v>0.00138116434871211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333334</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.948701025289588e-07</v>
+        <v>0.0050717639688754</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.05264835443776e-07</v>
+        <v>0.01251771057095923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2368421052631579</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2368421052631579</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.420945281990933e-06</v>
+        <v>0.02140075269020975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.196078431372549</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.196078431372549</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.295757128813708e-06</v>
+        <v>0.03479080301545347</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2592592592592592</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.08865891036596e-05</v>
+        <v>0.03479080301545347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3157894736842105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.090300209091374e-05</v>
+        <v>0.04946399496764788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3846153846153846</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.551485895048059e-05</v>
+        <v>0.09459289630800846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001831929608934574</v>
+        <v>0.1234587785976533</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0004323754927419943</v>
+        <v>0.1389289870543118</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2173913043478261</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0008489312326031909</v>
+        <v>0.1431677793415612</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001045815487773535</v>
+        <v>0.1773360804208949</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08661417322834646</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08661417322834646</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.002497993963180538</v>
+        <v>0.1807289938619878</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6666666666666666</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.004424367304778335</v>
+        <v>0.2240834791159773</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.004900473067410597</v>
+        <v>0.2881668717564126</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.005630236471553744</v>
+        <v>0.3010238611410488</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2307692307692308</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.006312618401749633</v>
+        <v>0.3556421373371929</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1538461538461539</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01178877515506441</v>
+        <v>0.3604609112582269</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3333333333333333</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,75 +1934,75 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01444441682972559</v>
+        <v>0.3619753498699201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1666666666666667</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02117889642042629</v>
+        <v>0.3981370089363193</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0327645075702588</v>
+        <v>0.4393199461382501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03929218802333145</v>
+        <v>0.5120811311603362</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1818181818181818</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1934,174 +2010,174 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.04626575216704207</v>
+        <v>0.5168498761673475</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.05768765413325047</v>
+        <v>0.5529092462766823</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.08528248421828544</v>
+        <v>0.6273993902185324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3333333333333333</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1380926950169023</v>
+        <v>0.7327841227794394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1380926950169023</v>
+        <v>0.8353743121331423</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1444312860746071</v>
+        <v>0.8709019921991497</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08695652173913043</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1473910598679868</v>
+        <v>0.9908230887448526</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05714285714285714</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3207770162968441</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07692307692307693</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3407269978687615</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07142857142857142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2111,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2130,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2149,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2168,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2187,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2206,16 +2282,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2225,16 +2301,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2244,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2263,16 +2339,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2282,16 +2358,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2301,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2320,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2339,16 +2415,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2358,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2377,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2396,16 +2472,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2415,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2434,7 +2510,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nitrogen metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Photosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Terpenoid backbone biosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,7 +2632,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2488,56 +2640,56 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.086033774199645e-17</v>
+        <v>1.378969454464058e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9166666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.194444842738703e-08</v>
+        <v>0.003015643231989743</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.915231461312845e-07</v>
+        <v>0.008710777974636581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2368421052631579</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2368421052631579</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2545,127 +2697,127 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.319979442582825e-06</v>
+        <v>0.02026600923262434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2592592592592592</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.489207946396891e-06</v>
+        <v>0.0245338404047546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1764705882352941</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.741970621945822e-06</v>
+        <v>0.0245338404047546</v>
       </c>
       <c r="D7" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.276612227949166e-06</v>
+        <v>0.0245338404047546</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.16417503777075e-05</v>
+        <v>0.04608816323833977</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1428571428571428</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.506624820095994e-05</v>
+        <v>0.05663690130722518</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2307692307692308</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.130637484133603e-05</v>
+        <v>0.0665762679654788</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -2674,98 +2826,98 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001071008042352312</v>
+        <v>0.09395902033565116</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09448818897637795</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09448818897637795</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001966748410080052</v>
+        <v>0.101800768946767</v>
       </c>
       <c r="D13" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000342907614055754</v>
+        <v>0.1340645129203862</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001075309095301501</v>
+        <v>0.1682316670232903</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2222222222222222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.002058644327423818</v>
+        <v>0.2424743255117622</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6666666666666666</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2773,127 +2925,127 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0040459822800063</v>
+        <v>0.2562428108657953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01109497283505006</v>
+        <v>0.2904546570291989</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1666666666666667</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01292505541251537</v>
+        <v>0.3487678771359147</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1578947368421053</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01344073583223389</v>
+        <v>0.4187508790286918</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2857142857142857</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01761313707629961</v>
+        <v>0.4986198629135833</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02970398458206471</v>
+        <v>0.6640582945068879</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06741573033707865</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06741573033707865</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03285193546734463</v>
+        <v>0.6959964143953176</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1818181818181818</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -2902,22 +3054,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03875079096642021</v>
+        <v>0.774886875992958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2925,212 +3077,212 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04501794220405592</v>
+        <v>0.7963894267530646</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.0625</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1538461538461539</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.05241819780626649</v>
+        <v>0.7963894267530646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.07759797454568783</v>
+        <v>0.9105626664150149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3333333333333333</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.125987443141531</v>
+        <v>0.9330745977001047</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.125987443141531</v>
+        <v>0.9999780688259111</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1718629397692862</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1428571428571428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.295666302655649</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.295666302655649</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07692307692307693</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3144383185217753</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07142857142857142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.462580572010418</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04347826086956522</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.462580572010418</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04347826086956522</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3140,16 +3292,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3159,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3178,16 +3330,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3197,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3216,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3235,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3254,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3273,16 +3425,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3292,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3311,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3330,16 +3482,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3349,16 +3501,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3368,16 +3520,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3387,16 +3539,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3406,16 +3558,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3425,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3444,7 +3596,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Photosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vitamin B6 metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hydrogen production</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nitrogen metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3458,7 +3686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3490,7 +3718,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3498,18 +3726,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.247511175849557e-12</v>
+        <v>6.049699991953173e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3517,170 +3745,170 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.035654114828511e-09</v>
+        <v>0.004600043553889873</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.247252608146445e-08</v>
+        <v>0.006458601071555581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2962962962962963</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.511945269539108e-06</v>
+        <v>0.01319106566150301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.150316431515142e-06</v>
+        <v>0.01319106566150301</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4166666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.291683149265928e-06</v>
+        <v>0.01515004540404448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6666666666666666</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.824158378185135e-05</v>
+        <v>0.05768163168732032</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2631578947368421</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07726190651013648</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E9" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Purine metabolism</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>9.493372197437816e-05</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.001207007974242261</v>
+        <v>0.09858442930686756</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001676923900394569</v>
+        <v>0.1060674358963018</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1538461538461539</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3688,18 +3916,18 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.002382207523807411</v>
+        <v>0.1916028954652967</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3707,227 +3935,227 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.002382207523807411</v>
+        <v>0.1916028954652967</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.002695409727016825</v>
+        <v>0.24706269682291</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08571428571428572</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.005284473120376957</v>
+        <v>0.2578579068257538</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1666666666666667</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.005799950062055535</v>
+        <v>0.2999028325766008</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3333333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.008013413532296542</v>
+        <v>0.3260170090909514</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2857142857142857</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0105446028658557</v>
+        <v>0.3774447188815572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5432806234426265</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E19" t="n">
         <v>11</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pyrimidine metabolism</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01066437544823575</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02750855197572442</v>
+        <v>0.5631525295597762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1538461538461539</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03167679189098237</v>
+        <v>0.5749079042136183</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1428571428571428</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04024269030979818</v>
+        <v>0.5749079042136183</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.05055770027926518</v>
+        <v>0.5835152483285584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1111111111111111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05976053147757615</v>
+        <v>0.6043796241330033</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3333333333333333</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3935,56 +4163,56 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.07837275257269452</v>
+        <v>0.657425044446023</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08695652173913043</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.08395082088826265</v>
+        <v>0.6812598585706511</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0625</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05882352941176471</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.09762877240854055</v>
+        <v>0.8566697232209333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3992,117 +4220,117 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1143477643656232</v>
+        <v>0.9973714605087721</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03937007874015748</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03937007874015748</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2024338143094816</v>
+        <v>0.9995473494440759</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09090909090909091</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2186929781928166</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2346250137109076</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07692307692307693</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2346250137109076</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07692307692307693</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5451662631611003</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02247191011235955</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02247191011235955</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4112,16 +4340,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4131,16 +4359,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4150,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4169,16 +4397,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4188,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4207,12 +4435,12 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4226,16 +4454,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4245,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -4254,7 +4482,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4264,16 +4492,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4283,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4302,16 +4530,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4321,16 +4549,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4340,16 +4568,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4359,16 +4587,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4378,12 +4606,12 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4397,16 +4625,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4416,16 +4644,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -4435,26 +4663,102 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Riboflavin metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Carotenoid Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Aminosugars metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Galactolipids metabolism</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
